--- a/KMeans/Book1.xlsx
+++ b/KMeans/Book1.xlsx
@@ -1,82 +1,401 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comm100\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A27A53F-7AE2-4FF1-930F-858E564757BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9180" xr2:uid="{D55DC522-3837-4C00-B9D8-07ED1497560C}"/>
+    <workbookView windowWidth="11940" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>用户聚类个数</t>
+  </si>
   <si>
     <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户聚类个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UCF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Kmeans-CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EEBK-CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,9 +403,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -95,26 +656,70 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -132,10 +737,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11180170824709017"/>
-          <c:y val="9.7638888888888886E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.0840093323909779"/>
+          <c:y val="0.130938312455684"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.720887649460484"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -145,7 +750,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>EEBK-CF</c:v>
+            <c:strRef>
+              <c:f>"EEBK-CF"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEBK-CF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -171,6 +784,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$19</c:f>
@@ -298,11 +914,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9C5-47E1-94E1-FEFB67C329AD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -331,7 +942,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -351,6 +962,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -359,26 +971,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -402,7 +994,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -414,7 +1006,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="512715471"/>
@@ -452,7 +1043,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -468,9 +1059,11 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>MAE</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -479,26 +1072,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -516,7 +1089,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -528,7 +1101,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="341540415"/>
@@ -545,6 +1117,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -558,7 +1131,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -570,19 +1143,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -605,9 +1170,621 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.147047164586922"/>
+          <c:y val="0.0842561386615311"/>
+          <c:w val="0.83077988641086"/>
+          <c:h val="0.620462205103515"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kmeans-CF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEBK-CF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="364509447"/>
+        <c:axId val="782303808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="364509447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>近邻个数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>K/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>个</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782303808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="782303808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MAE</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364509447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -658,6 +1835,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1161,39 +2378,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>205105</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601435</xdr:colOff>
+      <xdr:colOff>349340</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>100692</xdr:rowOff>
+      <xdr:rowOff>115660</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0F2B5F-F5C0-4DF9-A893-393FDF2D2CCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2310130" y="247650"/>
+        <a:ext cx="5144770" cy="2763520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3859530" y="3468370"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1245,7 +2989,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1278,26 +3022,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1330,23 +3057,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1488,24 +3198,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F98C52D-67F8-428F-9AB0-7278222C6C75}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -1513,10 +3218,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1639,7 +3344,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1647,7 +3352,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1655,7 +3360,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1663,7 +3368,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -1674,29 +3379,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0.78800000000000003</v>
+        <v>0.788</v>
       </c>
       <c r="C22">
-        <v>0.81899999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.78400000000000003</v>
+        <v>0.784</v>
       </c>
       <c r="C23">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -1704,10 +3409,10 @@
         <v>0.79</v>
       </c>
       <c r="C24">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>40</v>
       </c>
@@ -1715,10 +3420,10 @@
         <v>0.79</v>
       </c>
       <c r="C25">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1726,57 +3431,166 @@
         <v>0.79</v>
       </c>
       <c r="C26">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>60</v>
       </c>
       <c r="B27">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="C27">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>70</v>
       </c>
       <c r="B28">
-        <v>0.79400000000000004</v>
+        <v>0.794</v>
       </c>
       <c r="C28">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>80</v>
       </c>
       <c r="B29">
-        <v>0.78700000000000003</v>
+        <v>0.787</v>
       </c>
       <c r="C29">
         <v>0.83</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>90</v>
       </c>
       <c r="B30">
-        <v>0.79100000000000004</v>
+        <v>0.791</v>
       </c>
       <c r="C30">
         <v>0.84</v>
       </c>
     </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.788</v>
+      </c>
+      <c r="C32">
+        <v>0.759</v>
+      </c>
+      <c r="D32">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.784</v>
+      </c>
+      <c r="C33">
+        <v>0.757</v>
+      </c>
+      <c r="D33">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.79</v>
+      </c>
+      <c r="C34">
+        <v>0.75</v>
+      </c>
+      <c r="D34">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.79</v>
+      </c>
+      <c r="C35">
+        <v>0.74</v>
+      </c>
+      <c r="D35">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0.79</v>
+      </c>
+      <c r="C36">
+        <v>0.742</v>
+      </c>
+      <c r="D36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>0.792</v>
+      </c>
+      <c r="C37">
+        <v>0.743</v>
+      </c>
+      <c r="D37">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>0.794</v>
+      </c>
+      <c r="C38">
+        <v>0.754</v>
+      </c>
+      <c r="D38">
+        <v>0.73</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KMeans/Book1.xlsx
+++ b/KMeans/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="11790"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>用户聚类个数</t>
   </si>
@@ -30,6 +30,12 @@
   <si>
     <t>EEBK-CF</t>
   </si>
+  <si>
+    <t>BOA-CF</t>
+  </si>
+  <si>
+    <t>IBOA-CF</t>
+  </si>
 </sst>
 </file>
 
@@ -37,14 +43,66 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -67,34 +125,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -102,7 +132,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,15 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,56 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,37 +209,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +257,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,43 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,61 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +400,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,15 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,186 +500,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,8 +736,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0840093323909779"/>
-          <c:y val="0.130938312455684"/>
+          <c:x val="0.0786610579581102"/>
+          <c:y val="0.118277060663997"/>
           <c:w val="0.883891294838145"/>
           <c:h val="0.720887649460484"/>
         </c:manualLayout>
@@ -751,11 +750,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"EEBK-CF"</c:f>
+              <c:f>"IBOA-CF"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EEBK-CF</c:v>
+                  <c:v>IBOA-CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1116,8 +1115,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.420793298842079"/>
+          <c:y val="0.123387482083134"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,7 +1133,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -1320,7 +1326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$21</c:f>
+              <c:f>Sheet1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1423,11 +1429,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>Sheet1!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EEBK-CF</c:v>
+                  <c:v>BOA-CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1496,19 +1502,122 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IBOA-CF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69</c:v>
+                  <c:v>0.6839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.695</c:v>
+                  <c:v>0.685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.72</c:v>
@@ -2886,13 +2995,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
+      <xdr:colOff>187960</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>349340</xdr:colOff>
+      <xdr:colOff>332195</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115660</xdr:rowOff>
     </xdr:to>
@@ -2902,7 +3011,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2310130" y="247650"/>
+        <a:off x="2292985" y="247650"/>
         <a:ext cx="5144770" cy="2763520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2915,16 +3024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2932,7 +3041,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3859530" y="3468370"/>
+        <a:off x="4818380" y="3402330"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3204,13 +3313,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -3478,7 +3587,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -3486,10 +3595,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>10</v>
       </c>
@@ -3500,10 +3612,13 @@
         <v>0.759</v>
       </c>
       <c r="D32">
+        <v>0.75</v>
+      </c>
+      <c r="E32">
         <v>0.73</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3514,10 +3629,13 @@
         <v>0.757</v>
       </c>
       <c r="D33">
+        <v>0.737</v>
+      </c>
+      <c r="E33">
         <v>0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3528,10 +3646,13 @@
         <v>0.75</v>
       </c>
       <c r="D34">
-        <v>0.69</v>
+        <v>0.7</v>
+      </c>
+      <c r="E34">
+        <v>0.6839</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>40</v>
       </c>
@@ -3542,10 +3663,13 @@
         <v>0.74</v>
       </c>
       <c r="D35">
-        <v>0.695</v>
+        <v>0.71</v>
+      </c>
+      <c r="E35">
+        <v>0.685</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>50</v>
       </c>
@@ -3556,10 +3680,13 @@
         <v>0.742</v>
       </c>
       <c r="D36">
-        <v>0.71</v>
+        <v>0.72</v>
+      </c>
+      <c r="E36">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>60</v>
       </c>
@@ -3570,10 +3697,13 @@
         <v>0.743</v>
       </c>
       <c r="D37">
+        <v>0.73</v>
+      </c>
+      <c r="E37">
         <v>0.72</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>70</v>
       </c>
@@ -3584,6 +3714,9 @@
         <v>0.754</v>
       </c>
       <c r="D38">
+        <v>0.74</v>
+      </c>
+      <c r="E38">
         <v>0.73</v>
       </c>
     </row>
